--- a/data/template_sns.xlsx
+++ b/data/template_sns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okubo\OneDrive\ドキュメント\004_blogs\succulent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB731B44-6D5C-4A7E-967D-FEDAC0499F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB67E5E-74CB-426B-B323-6B0DAEC2A07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,7 +405,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -415,8 +415,8 @@
     <col min="3" max="3" width="52.9296875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1328125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58.1328125" style="3" customWidth="1"/>
-    <col min="6" max="10" width="9.06640625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.06640625" style="2"/>
+    <col min="6" max="11" width="9.06640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -436,772 +436,722 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3"/>
+      <c r="C3"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4"/>
+      <c r="C4"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5"/>
+      <c r="C5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6"/>
+      <c r="C6"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7"/>
+      <c r="C7"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8"/>
+      <c r="C8"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9"/>
+      <c r="C9"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10"/>
+      <c r="C10"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11"/>
+      <c r="C11"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12"/>
+      <c r="C12"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13"/>
+      <c r="C13"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14"/>
+      <c r="C14"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15"/>
+      <c r="C15"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16"/>
+      <c r="C16"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17"/>
+      <c r="C17"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18"/>
+      <c r="C18"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19"/>
+      <c r="C19"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20"/>
+      <c r="C20"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21"/>
+      <c r="C21"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22"/>
+      <c r="C22"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23"/>
+      <c r="C23"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24"/>
+      <c r="C24"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25"/>
+      <c r="C25"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26"/>
+      <c r="C26"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27"/>
+      <c r="C27"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28"/>
+      <c r="C28"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29"/>
+      <c r="C29"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30"/>
+      <c r="C30"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31"/>
+      <c r="C31"/>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32"/>
+      <c r="C32"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33"/>
+      <c r="C33"/>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34"/>
+      <c r="C34"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35"/>
+      <c r="C35"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36"/>
+      <c r="C36"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37"/>
+      <c r="C37"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38"/>
+      <c r="C38"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39"/>
+      <c r="C39"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40"/>
+      <c r="C40"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41"/>
+      <c r="C41"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42"/>
+      <c r="C42"/>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43"/>
+      <c r="C43"/>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44"/>
+      <c r="C44"/>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45"/>
+      <c r="C45"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46"/>
+      <c r="C46"/>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47"/>
+      <c r="C47"/>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="5:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48"/>
+      <c r="C48"/>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="2:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49"/>
+      <c r="C49"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="2:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50"/>
+      <c r="C50"/>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="2:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51"/>
+      <c r="C51"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="2:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52"/>
+      <c r="C52"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="2:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53"/>
+      <c r="C53"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="2:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54"/>
+      <c r="C54"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="2:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55"/>
+      <c r="C55"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="2:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56"/>
+      <c r="C56"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="2:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57"/>
+      <c r="C57"/>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="2:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58"/>
+      <c r="C58"/>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="2:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59"/>
+      <c r="C59"/>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="2:5" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="B60"/>
+    <row r="60" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60"/>
       <c r="C60"/>
-      <c r="D60"/>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="2:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61"/>
       <c r="C61"/>
-      <c r="D61"/>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="2:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A62"/>
       <c r="C62"/>
-      <c r="D62"/>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="2:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63"/>
       <c r="C63"/>
-      <c r="D63"/>
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="2:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64"/>
       <c r="C64"/>
-      <c r="D64"/>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="2:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65"/>
       <c r="C65"/>
-      <c r="D65"/>
       <c r="E65" s="4"/>
     </row>
-    <row r="66" spans="2:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A66"/>
       <c r="C66"/>
-      <c r="D66"/>
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="2:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67"/>
       <c r="C67"/>
-      <c r="D67"/>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="2:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68"/>
       <c r="C68"/>
-      <c r="D68"/>
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="2:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A69"/>
       <c r="C69"/>
-      <c r="D69"/>
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="2:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A70"/>
       <c r="C70"/>
-      <c r="D70"/>
       <c r="E70" s="4"/>
     </row>
-    <row r="71" spans="2:5" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="B71"/>
+    <row r="71" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A71"/>
       <c r="C71"/>
-      <c r="D71"/>
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="2:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A72"/>
       <c r="C72"/>
-      <c r="D72"/>
       <c r="E72" s="4"/>
     </row>
-    <row r="73" spans="2:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A73"/>
       <c r="C73"/>
-      <c r="D73"/>
       <c r="E73" s="4"/>
     </row>
-    <row r="74" spans="2:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A74"/>
       <c r="C74"/>
-      <c r="D74"/>
       <c r="E74" s="4"/>
     </row>
-    <row r="75" spans="2:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A75"/>
       <c r="C75"/>
-      <c r="D75"/>
       <c r="E75" s="4"/>
     </row>
-    <row r="76" spans="2:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A76"/>
       <c r="C76"/>
-      <c r="D76"/>
       <c r="E76" s="4"/>
     </row>
-    <row r="77" spans="2:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A77"/>
       <c r="C77"/>
-      <c r="D77"/>
       <c r="E77" s="4"/>
     </row>
-    <row r="78" spans="2:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A78"/>
       <c r="C78"/>
-      <c r="D78"/>
       <c r="E78" s="4"/>
     </row>
-    <row r="79" spans="2:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A79"/>
       <c r="C79"/>
-      <c r="D79"/>
       <c r="E79" s="4"/>
     </row>
-    <row r="80" spans="2:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A80"/>
       <c r="C80"/>
-      <c r="D80"/>
       <c r="E80" s="4"/>
     </row>
-    <row r="81" spans="3:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A81"/>
       <c r="C81"/>
-      <c r="D81"/>
       <c r="E81" s="4"/>
     </row>
-    <row r="82" spans="3:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A82"/>
       <c r="C82"/>
-      <c r="D82"/>
       <c r="E82" s="4"/>
     </row>
-    <row r="83" spans="3:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A83"/>
       <c r="C83"/>
-      <c r="D83"/>
       <c r="E83" s="4"/>
     </row>
-    <row r="84" spans="3:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A84"/>
       <c r="C84"/>
-      <c r="D84"/>
       <c r="E84" s="4"/>
     </row>
-    <row r="85" spans="3:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A85"/>
       <c r="C85"/>
-      <c r="D85"/>
       <c r="E85" s="4"/>
     </row>
-    <row r="86" spans="3:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A86"/>
       <c r="C86"/>
-      <c r="D86"/>
       <c r="E86" s="4"/>
     </row>
-    <row r="87" spans="3:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A87"/>
       <c r="C87"/>
-      <c r="D87"/>
       <c r="E87" s="4"/>
     </row>
-    <row r="88" spans="3:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A88"/>
       <c r="C88"/>
-      <c r="D88"/>
       <c r="E88" s="4"/>
     </row>
-    <row r="89" spans="3:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A89"/>
       <c r="C89"/>
-      <c r="D89"/>
       <c r="E89" s="4"/>
     </row>
-    <row r="90" spans="3:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A90"/>
       <c r="C90"/>
-      <c r="D90"/>
       <c r="E90" s="4"/>
     </row>
-    <row r="91" spans="3:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A91"/>
       <c r="C91"/>
-      <c r="D91"/>
       <c r="E91" s="4"/>
     </row>
-    <row r="92" spans="3:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A92"/>
       <c r="C92"/>
-      <c r="D92"/>
       <c r="E92" s="4"/>
     </row>
-    <row r="93" spans="3:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A93"/>
       <c r="C93"/>
-      <c r="D93"/>
       <c r="E93" s="4"/>
     </row>
-    <row r="94" spans="3:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A94"/>
       <c r="C94"/>
-      <c r="D94"/>
       <c r="E94" s="4"/>
     </row>
-    <row r="95" spans="3:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A95"/>
       <c r="C95"/>
-      <c r="D95"/>
       <c r="E95" s="4"/>
     </row>
-    <row r="96" spans="3:5" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A96"/>
       <c r="C96"/>
-      <c r="D96"/>
       <c r="E96" s="4"/>
     </row>
-    <row r="97" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A97"/>
       <c r="C97"/>
-      <c r="D97"/>
-    </row>
-    <row r="98" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A98"/>
       <c r="C98"/>
-      <c r="D98"/>
-    </row>
-    <row r="99" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A99"/>
       <c r="C99"/>
-      <c r="D99"/>
-    </row>
-    <row r="100" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A100"/>
       <c r="C100"/>
-      <c r="D100"/>
-    </row>
-    <row r="101" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A101"/>
       <c r="C101"/>
-      <c r="D101"/>
-    </row>
-    <row r="102" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A102"/>
       <c r="C102"/>
-      <c r="D102"/>
-    </row>
-    <row r="103" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A103"/>
       <c r="C103"/>
-      <c r="D103"/>
-    </row>
-    <row r="104" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A104"/>
       <c r="C104"/>
-      <c r="D104"/>
-    </row>
-    <row r="105" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A105"/>
       <c r="C105"/>
-      <c r="D105"/>
-    </row>
-    <row r="106" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A106"/>
       <c r="C106"/>
-      <c r="D106"/>
-    </row>
-    <row r="107" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A107"/>
       <c r="C107"/>
-      <c r="D107"/>
-    </row>
-    <row r="108" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A108"/>
       <c r="C108"/>
-      <c r="D108"/>
-    </row>
-    <row r="109" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A109"/>
       <c r="C109"/>
-      <c r="D109"/>
-    </row>
-    <row r="110" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A110"/>
       <c r="C110"/>
-      <c r="D110"/>
-    </row>
-    <row r="111" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A111"/>
       <c r="C111"/>
-      <c r="D111"/>
-    </row>
-    <row r="112" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A112"/>
       <c r="C112"/>
-      <c r="D112"/>
-    </row>
-    <row r="113" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A113"/>
       <c r="C113"/>
-      <c r="D113"/>
-    </row>
-    <row r="114" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A114"/>
       <c r="C114"/>
-      <c r="D114"/>
-    </row>
-    <row r="115" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A115"/>
       <c r="C115"/>
-      <c r="D115"/>
-    </row>
-    <row r="116" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A116"/>
       <c r="C116"/>
-      <c r="D116"/>
-    </row>
-    <row r="117" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A117"/>
       <c r="C117"/>
-      <c r="D117"/>
-    </row>
-    <row r="118" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A118"/>
       <c r="C118"/>
-      <c r="D118"/>
-    </row>
-    <row r="119" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A119"/>
       <c r="C119"/>
-      <c r="D119"/>
-    </row>
-    <row r="120" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A120"/>
       <c r="C120"/>
-      <c r="D120"/>
-    </row>
-    <row r="121" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A121"/>
       <c r="C121"/>
-      <c r="D121"/>
-    </row>
-    <row r="122" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A122"/>
       <c r="C122"/>
-      <c r="D122"/>
-    </row>
-    <row r="123" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A123"/>
       <c r="C123"/>
-      <c r="D123"/>
-    </row>
-    <row r="124" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A124"/>
       <c r="C124"/>
-      <c r="D124"/>
-    </row>
-    <row r="125" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A125"/>
       <c r="C125"/>
-      <c r="D125"/>
-    </row>
-    <row r="126" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A126"/>
       <c r="C126"/>
-      <c r="D126"/>
-    </row>
-    <row r="127" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A127"/>
       <c r="C127"/>
-      <c r="D127"/>
-    </row>
-    <row r="128" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A128"/>
       <c r="C128"/>
-      <c r="D128"/>
-    </row>
-    <row r="129" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A129"/>
       <c r="C129"/>
-      <c r="D129"/>
-    </row>
-    <row r="130" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A130"/>
       <c r="C130"/>
-      <c r="D130"/>
-    </row>
-    <row r="131" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A131"/>
       <c r="C131"/>
-      <c r="D131"/>
-    </row>
-    <row r="132" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A132"/>
       <c r="C132"/>
-      <c r="D132"/>
-    </row>
-    <row r="133" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A133"/>
       <c r="C133"/>
-      <c r="D133"/>
-    </row>
-    <row r="134" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A134"/>
       <c r="C134"/>
-      <c r="D134"/>
-    </row>
-    <row r="135" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A135"/>
       <c r="C135"/>
-      <c r="D135"/>
-    </row>
-    <row r="136" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A136"/>
       <c r="C136"/>
-      <c r="D136"/>
-    </row>
-    <row r="137" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A137"/>
       <c r="C137"/>
-      <c r="D137"/>
-    </row>
-    <row r="138" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A138"/>
       <c r="C138"/>
-      <c r="D138"/>
-    </row>
-    <row r="139" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A139"/>
       <c r="C139"/>
-      <c r="D139"/>
-    </row>
-    <row r="140" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="140" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A140"/>
       <c r="C140"/>
-      <c r="D140"/>
-    </row>
-    <row r="141" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A141"/>
       <c r="C141"/>
-      <c r="D141"/>
-    </row>
-    <row r="142" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A142"/>
       <c r="C142"/>
-      <c r="D142"/>
-    </row>
-    <row r="143" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C143"/>
-      <c r="D143"/>
-    </row>
-    <row r="144" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C144"/>
-      <c r="D144"/>
-    </row>
-    <row r="145" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C145"/>
-      <c r="D145"/>
-    </row>
-    <row r="146" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C146"/>
-      <c r="D146"/>
-    </row>
-    <row r="147" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C147"/>
-      <c r="D147"/>
-    </row>
-    <row r="148" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C148"/>
-      <c r="D148"/>
-    </row>
-    <row r="149" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C149"/>
-      <c r="D149"/>
-    </row>
-    <row r="150" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C150"/>
-      <c r="D150"/>
-    </row>
-    <row r="151" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C151"/>
-      <c r="D151"/>
-    </row>
-    <row r="152" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C152"/>
-      <c r="D152"/>
-    </row>
-    <row r="153" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C153"/>
-      <c r="D153"/>
-    </row>
-    <row r="154" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C154"/>
-      <c r="D154"/>
-    </row>
-    <row r="155" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C155"/>
-      <c r="D155"/>
-    </row>
-    <row r="156" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C156"/>
-      <c r="D156"/>
-    </row>
-    <row r="157" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C157"/>
-      <c r="D157"/>
-    </row>
-    <row r="158" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C158"/>
-      <c r="D158"/>
-    </row>
-    <row r="159" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C159"/>
-      <c r="D159"/>
-    </row>
-    <row r="160" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C160"/>
-      <c r="D160"/>
-    </row>
-    <row r="161" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C161"/>
-      <c r="D161"/>
-    </row>
-    <row r="162" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C162"/>
-      <c r="D162"/>
-    </row>
-    <row r="163" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C163"/>
-      <c r="D163"/>
-    </row>
-    <row r="164" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C164"/>
-      <c r="D164"/>
-    </row>
-    <row r="165" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C165"/>
-      <c r="D165"/>
-    </row>
-    <row r="166" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C166"/>
-      <c r="D166"/>
-    </row>
-    <row r="167" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C167"/>
-      <c r="D167"/>
-    </row>
-    <row r="168" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C168"/>
-      <c r="D168"/>
-    </row>
-    <row r="169" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C169"/>
-      <c r="D169"/>
-    </row>
-    <row r="170" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C170"/>
-      <c r="D170"/>
-    </row>
-    <row r="171" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C171"/>
-      <c r="D171"/>
-    </row>
-    <row r="172" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C172"/>
-      <c r="D172"/>
-    </row>
-    <row r="173" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C173"/>
-      <c r="D173"/>
-    </row>
-    <row r="174" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C174"/>
-      <c r="D174"/>
-    </row>
-    <row r="175" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C175"/>
-      <c r="D175"/>
-    </row>
-    <row r="176" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C176"/>
-      <c r="D176"/>
-    </row>
-    <row r="177" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C177"/>
-      <c r="D177"/>
-    </row>
-    <row r="178" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C178"/>
-      <c r="D178"/>
-    </row>
-    <row r="179" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C179"/>
-      <c r="D179"/>
-    </row>
-    <row r="180" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C180"/>
-      <c r="D180"/>
-    </row>
-    <row r="181" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C181"/>
-      <c r="D181"/>
-    </row>
-    <row r="182" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C182"/>
-      <c r="D182"/>
-    </row>
-    <row r="183" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C183"/>
-      <c r="D183"/>
-    </row>
-    <row r="184" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C184"/>
-      <c r="D184"/>
-    </row>
-    <row r="185" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C185"/>
-      <c r="D185"/>
-    </row>
-    <row r="186" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C186"/>
-      <c r="D186"/>
-    </row>
-    <row r="187" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C187"/>
-      <c r="D187"/>
-    </row>
-    <row r="188" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C188"/>
-      <c r="D188"/>
-    </row>
-    <row r="189" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C189"/>
-      <c r="D189"/>
-    </row>
-    <row r="190" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C190"/>
-      <c r="D190"/>
-    </row>
-    <row r="191" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C191"/>
-      <c r="D191"/>
-    </row>
-    <row r="192" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C192"/>
-      <c r="D192"/>
-    </row>
-    <row r="193" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C193"/>
-      <c r="D193"/>
-    </row>
-    <row r="194" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C194"/>
-      <c r="D194"/>
-    </row>
-    <row r="195" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C195"/>
-      <c r="D195"/>
-    </row>
-    <row r="196" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C196"/>
-      <c r="D196"/>
-    </row>
-    <row r="197" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C197"/>
-      <c r="D197"/>
-    </row>
-    <row r="198" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    </row>
+    <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <conditionalFormatting sqref="C60:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
